--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_40_5.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_0</t>
+          <t>model_40_5_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999686932010947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990683788130419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998878524160755</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996339721860903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9997939221234302</v>
       </c>
       <c r="G2" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.922352256840288e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008696274845815399</v>
       </c>
       <c r="I2" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>6.235954508296577e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001195570870914823</v>
       </c>
       <c r="K2" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>9.095878724233114e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003955008296977327</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005405878519575045</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000022768581022</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005636017959864586</v>
       </c>
       <c r="P2" t="n">
-        <v>135.4931009932421</v>
+        <v>134.8810732111485</v>
       </c>
       <c r="Q2" t="n">
-        <v>204.9690230107295</v>
+        <v>204.3569952286359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_22</t>
+          <t>model_40_5_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999687973865142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990681690414399</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998884550606907</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996353409956713</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9997948048387553</v>
       </c>
       <c r="G3" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.912627005247983e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000869823297164095</v>
       </c>
       <c r="I3" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>6.2024445183913e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001191099874993943</v>
       </c>
       <c r="K3" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>9.056917377781438e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003974780177185774</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005396875953038001</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000022692809808</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005626632135432179</v>
       </c>
       <c r="P3" t="n">
-        <v>135.4931009932421</v>
+        <v>134.8877400801541</v>
       </c>
       <c r="Q3" t="n">
-        <v>204.9690230107295</v>
+        <v>204.3636620976416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_21</t>
+          <t>model_40_5_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999689108880594</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990679221086182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998891529852887</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996368191541218</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9997957958334236</v>
       </c>
       <c r="G4" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.902032134223802e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008700537981140858</v>
       </c>
       <c r="I4" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>6.163636495150548e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001186271708611983</v>
       </c>
       <c r="K4" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>9.013176790635186e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003996211171519534</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005387051265974552</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000022610263229</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005616389191100532</v>
       </c>
       <c r="P4" t="n">
-        <v>135.4931009932421</v>
+        <v>134.8950284748787</v>
       </c>
       <c r="Q4" t="n">
-        <v>204.9690230107295</v>
+        <v>204.3709504923661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_20</t>
+          <t>model_40_5_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999690225315013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990676288582035</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998898827729913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.999638368964277</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9997968292274875</v>
       </c>
       <c r="G5" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.891610708974671e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008703275345038698</v>
       </c>
       <c r="I5" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>6.123056727356664e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001181209503482621</v>
       </c>
       <c r="K5" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.967564776208876e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004020066474911803</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005377369904492968</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000022529067999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005606295674017497</v>
       </c>
       <c r="P5" t="n">
-        <v>135.4931009932421</v>
+        <v>134.9022235587118</v>
       </c>
       <c r="Q5" t="n">
-        <v>204.9690230107295</v>
+        <v>204.3781455761992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_19</t>
+          <t>model_40_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999691871756303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990673112750342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998909091083912</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996405637970817</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9997982875802472</v>
       </c>
       <c r="G6" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.876241902246547e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008706239844521262</v>
       </c>
       <c r="I6" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>6.065987456316815e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001174040435810729</v>
       </c>
       <c r="K6" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.903195907212054e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004043707607809485</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005363060602162301</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000022409326814</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005591377195062274</v>
       </c>
       <c r="P6" t="n">
-        <v>135.4931009932421</v>
+        <v>134.9128818359851</v>
       </c>
       <c r="Q6" t="n">
-        <v>204.9690230107295</v>
+        <v>204.3888038534726</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_18</t>
+          <t>model_40_5_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999693181839072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990669091093074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998918473370044</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996425302382493</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9997996061783132</v>
       </c>
       <c r="G7" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.864012854651893e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008709993885051826</v>
       </c>
       <c r="I7" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>6.013817353793935e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001167617372616877</v>
       </c>
       <c r="K7" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.844995539981351e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004071815233235464</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005351647274112797</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000022314048068</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005579477978008856</v>
       </c>
       <c r="P7" t="n">
-        <v>135.4931009932421</v>
+        <v>134.9214034550516</v>
       </c>
       <c r="Q7" t="n">
-        <v>204.9690230107295</v>
+        <v>204.397325472539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_17</t>
+          <t>model_40_5_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.999969522832272</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990664643367928</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998932172803393</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996453606655741</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998015171538295</v>
       </c>
       <c r="G8" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.844909828099117e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008714145641242795</v>
       </c>
       <c r="I8" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>5.937641799973748e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001158372237867217</v>
       </c>
       <c r="K8" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.760648778308106e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004098305136356565</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005333769612665246</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000022165212893</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005560839227501622</v>
       </c>
       <c r="P8" t="n">
-        <v>135.4931009932421</v>
+        <v>134.9347881855255</v>
       </c>
       <c r="Q8" t="n">
-        <v>204.9690230107295</v>
+        <v>204.4107102030129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_16</t>
+          <t>model_40_5_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999697673920718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990660006289223</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998948346415368</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996488561735012</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998038285568004</v>
       </c>
       <c r="G9" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.822081244290091e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008718474150669663</v>
       </c>
       <c r="I9" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>5.847708602145658e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001146954724503809</v>
       </c>
       <c r="K9" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.658627923591874e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004126017507709247</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005312326462379822</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000021987351221</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005538483197915106</v>
       </c>
       <c r="P9" t="n">
-        <v>135.4931009932421</v>
+        <v>134.9509016446805</v>
       </c>
       <c r="Q9" t="n">
-        <v>204.9690230107295</v>
+        <v>204.4268236621679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_15</t>
+          <t>model_40_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999700424296993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990654361960747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998967057535783</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.999652902057502</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998065059638899</v>
       </c>
       <c r="G10" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.796407689029078e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008723742883544885</v>
       </c>
       <c r="I10" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>5.743665615555715e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001133739496385557</v>
       </c>
       <c r="K10" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.540452355272004e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004154343506122972</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005288107117891125</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000021787323855</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005513232785790571</v>
       </c>
       <c r="P10" t="n">
-        <v>135.4931009932421</v>
+        <v>134.9691796794026</v>
       </c>
       <c r="Q10" t="n">
-        <v>204.9690230107295</v>
+        <v>204.44510169689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_14</t>
+          <t>model_40_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999703378015345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990648067613277</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9998987751084882</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996575437860619</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998095214551393</v>
       </c>
       <c r="G11" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.768836024747063e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000872961838061817</v>
       </c>
       <c r="I11" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>5.628599355287509e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001118578038031807</v>
       </c>
       <c r="K11" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.407354406304106e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004185163132064266</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005261973037508899</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000021572507975</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.00548598612350147</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4931009932421</v>
+        <v>134.988996881511</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.9690230107295</v>
+        <v>204.4649188989984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_13</t>
+          <t>model_40_5_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999706851514797</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990641067380178</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999012152314812</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996631126455016</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998131227647623</v>
       </c>
       <c r="G12" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.73641243206045e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008736152790940616</v>
       </c>
       <c r="I12" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>5.492916575095374e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001100388256060794</v>
       </c>
       <c r="K12" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.248399567851655e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004214802748357441</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.00523107296074185</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000021319889833</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.00545377056649447</v>
       </c>
       <c r="P12" t="n">
-        <v>135.4931009932421</v>
+        <v>135.0125554677166</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.9690230107295</v>
+        <v>204.488477485204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_23</t>
+          <t>model_40_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999711757214924</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.999063328765914</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999044236509672</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996707919505045</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998179851884746</v>
       </c>
       <c r="G13" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.690619874727947e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008743414819040436</v>
       </c>
       <c r="I13" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>5.314512749903131e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001075305043743543</v>
       </c>
       <c r="K13" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>8.033781593669282e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004237966971188752</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005187118539929416</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000020963111642</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005407944914989856</v>
       </c>
       <c r="P13" t="n">
-        <v>135.4931009932421</v>
+        <v>135.0463077224022</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.9690230107295</v>
+        <v>204.5222297398896</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999717384115622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990624267183169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999081067572059</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996799453957844</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.999823692068362</v>
       </c>
       <c r="G14" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.638095226634647e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008751835037405758</v>
       </c>
       <c r="I14" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>5.109714018177619e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001045406789760495</v>
       </c>
       <c r="K14" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>7.781890957891285e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004257205142285146</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005136239116936289</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000016766245506</v>
+        <v>1.0000205538825</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005354899449624987</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4931009932421</v>
+        <v>135.0857366265694</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.9690230107295</v>
+        <v>204.5616586440568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_10</t>
+          <t>model_40_5_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999723031702517</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990613886243148</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999119537711741</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9996901065481058</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998298750588185</v>
       </c>
       <c r="G15" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.585377481975956e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008761525189244472</v>
       </c>
       <c r="I15" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>4.895801214537101e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000104899898526401</v>
+        <v>0.0001012217023112472</v>
       </c>
       <c r="K15" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>7.508985722830911e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004276332186712626</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005084660737921416</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000020143148908</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005301125272233488</v>
       </c>
       <c r="P15" t="n">
-        <v>135.4931009932421</v>
+        <v>135.1261078796543</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.9690230107295</v>
+        <v>204.6020298971418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_9</t>
+          <t>model_40_5_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999729218015967</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990603125920591</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999160647267517</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9997022770491455</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998369677921808</v>
       </c>
       <c r="G16" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.527630961392475e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008771569478027678</v>
       </c>
       <c r="I16" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>4.667211965708867e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000104899898526401</v>
+        <v>9.724640426704456e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>7.195926196206662e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004293971567955426</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.005027555033405875</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000019693235202</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005241588459651615</v>
       </c>
       <c r="P16" t="n">
-        <v>135.4931009932421</v>
+        <v>135.1712859596073</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.9690230107295</v>
+        <v>204.6472079770947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_8</t>
+          <t>model_40_5_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999735428137912</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990590723539515</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999203813927658</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9997159916968761</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998447614576101</v>
       </c>
       <c r="G17" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.469662198956527e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008783146556360934</v>
       </c>
       <c r="I17" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>4.427184209873836e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000104899898526401</v>
+        <v>9.276673558928505e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>6.851928884401171e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004307264652256297</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004969569598020061</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001924158997</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005181134464235028</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4931009932421</v>
+        <v>135.2176881704782</v>
       </c>
       <c r="Q17" t="n">
-        <v>204.9690230107295</v>
+        <v>204.6936101879656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_7</t>
+          <t>model_40_5_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999742321481195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990577015270294</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999250507964877</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9997325265397023</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998538195764162</v>
       </c>
       <c r="G18" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.405315865241038e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008795942623954167</v>
       </c>
       <c r="I18" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>4.167542511213187e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000104899898526401</v>
+        <v>8.736589562931953e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>6.452121047186993e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004310809287207883</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004904401966846761</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000018740255913</v>
       </c>
       <c r="O18" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005113192512087087</v>
       </c>
       <c r="P18" t="n">
-        <v>135.4931009932421</v>
+        <v>135.2704884662758</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.9690230107295</v>
+        <v>204.7464104837632</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_6</t>
+          <t>model_40_5_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999750739735731</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990562497391828</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999303684323184</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9997530572485867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998647677352113</v>
       </c>
       <c r="G19" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.326735154341249e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008809494426241004</v>
       </c>
       <c r="I19" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>3.871855934905888e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000104899898526401</v>
+        <v>8.065987041253965e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>5.968890501960907e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004289500754641852</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004823624316156109</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001812801922</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.005028975989573745</v>
       </c>
       <c r="P19" t="n">
-        <v>135.4931009932421</v>
+        <v>135.336918802668</v>
       </c>
       <c r="Q19" t="n">
-        <v>204.9690230107295</v>
+        <v>204.8128408201554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_5</t>
+          <t>model_40_5_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999758841629195</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990546727603843</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999354535167394</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9997763235373071</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.999876578962492</v>
       </c>
       <c r="G20" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.251107535179807e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008824214831112251</v>
       </c>
       <c r="I20" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>3.589100355065942e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000104899898526401</v>
+        <v>7.30603121244982e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>5.447565783757881e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004251580252114594</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004744583791208463</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000017538790604</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004946570545842635</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4931009932421</v>
+        <v>135.403006264011</v>
       </c>
       <c r="Q20" t="n">
-        <v>204.9690230107295</v>
+        <v>204.8789282814985</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_4</t>
+          <t>model_40_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999766055490805</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990530095337073</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999401528899602</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9998021049521673</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9998890771763023</v>
       </c>
       <c r="G21" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.183769303567055e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008839740322069808</v>
       </c>
       <c r="I21" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>3.327792205604926e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000104899898526401</v>
+        <v>6.463922841272106e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>4.895918809421269e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.000419442750750297</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004673081749303189</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000017014146123</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004872024513983822</v>
       </c>
       <c r="P21" t="n">
-        <v>135.4931009932421</v>
+        <v>135.4637460858034</v>
       </c>
       <c r="Q21" t="n">
-        <v>204.9690230107295</v>
+        <v>204.9396681032908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_3</t>
+          <t>model_40_5_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999773980277492</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990511089049402</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999449145465017</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9998317735515114</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9999030557112186</v>
       </c>
       <c r="G22" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.109794898416914e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.000885748185733119</v>
       </c>
       <c r="I22" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>3.06302079869412e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000104899898526401</v>
+        <v>5.494845852888681e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>4.2789333257914e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0004075515330722631</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004593250372467099</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000016437798001</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004788794550162088</v>
       </c>
       <c r="P22" t="n">
-        <v>135.4931009932421</v>
+        <v>135.5326694534973</v>
       </c>
       <c r="Q22" t="n">
-        <v>204.9690230107295</v>
+        <v>205.0085914709848</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_2</t>
+          <t>model_40_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999776673673897</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.999048590799919</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999479114752124</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9998594221550012</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9999151738339821</v>
       </c>
       <c r="G23" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.084653225244451e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008880987262383104</v>
       </c>
       <c r="I23" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>2.896376895624547e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000104899898526401</v>
+        <v>4.591748773988307e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>3.744062834806427e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003947577203827783</v>
       </c>
       <c r="M23" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004565800286088355</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000016241914626</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.00476017585677669</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4931009932421</v>
+        <v>135.5566458847591</v>
       </c>
       <c r="Q23" t="n">
-        <v>204.9690230107295</v>
+        <v>205.0325679022466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_1</t>
+          <t>model_40_5_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.999977532158921</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990452423296278</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.999950002419727</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9998857437883851</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9999262298447242</v>
       </c>
       <c r="G24" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.097274342300587e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008912243762743194</v>
       </c>
       <c r="I24" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>2.780110147687505e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000104899898526401</v>
+        <v>3.731995035258656e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>3.256071913322549e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003759108334251262</v>
       </c>
       <c r="M24" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004579600792973757</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000016340248058</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.00477456387981119</v>
       </c>
       <c r="P24" t="n">
-        <v>135.4931009932421</v>
+        <v>135.5445737910445</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.9690230107295</v>
+        <v>205.020495808532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_11</t>
+          <t>model_40_5_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.999976606230205</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990403156318033</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999505290477907</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9999069613707922</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9999344128028888</v>
       </c>
       <c r="G25" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.183705723578099e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0008958232324365053</v>
       </c>
       <c r="I25" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>2.750827050069192e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000104899898526401</v>
+        <v>3.038956896817542e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>2.894891973443367e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003538341529279341</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004673013720906561</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000016766245506</v>
+        <v>1.00001701365076</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.004871953589477512</v>
       </c>
       <c r="P25" t="n">
-        <v>135.4931009932421</v>
+        <v>135.463804316235</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.9690230107295</v>
+        <v>204.9397263337224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_40_5_24</t>
+          <t>model_40_5_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999769464124288</v>
+        <v>0.9999746664217333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991436251809585</v>
+        <v>0.9990329343000769</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999996748521219</v>
+        <v>0.9999497592151534</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998191084505449</v>
+        <v>0.9999210992064256</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999416499700514</v>
+        <v>0.9999391590820464</v>
       </c>
       <c r="G26" t="n">
-        <v>2.151951206211985e-05</v>
+        <v>2.364778329638102e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007993883030652073</v>
+        <v>0.0009027133816000839</v>
       </c>
       <c r="I26" t="n">
-        <v>3.782883786166042e-07</v>
+        <v>2.793633512209189e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000104899898526401</v>
+        <v>2.577167278137618e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>5.26417685522455e-05</v>
+        <v>2.685400395173403e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002498757669700522</v>
+        <v>0.0003294315470545197</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004638912810359756</v>
+        <v>0.004862898651666619</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000016766245506</v>
+        <v>1.000018424420558</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004836400932570113</v>
+        <v>0.00506992231485602</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4931009932421</v>
+        <v>135.3044823539183</v>
       </c>
       <c r="Q26" t="n">
-        <v>204.9690230107295</v>
+        <v>204.7804043714057</v>
       </c>
     </row>
   </sheetData>
